--- a/relatorio_atividades.xlsx
+++ b/relatorio_atividades.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
   <si>
     <t>Relatório de Atividades - DS152 - 2022-1</t>
   </si>
@@ -37,10 +37,7 @@
     <t>Configuração de projeto</t>
   </si>
   <si>
-    <t>Protótipo</t>
-  </si>
-  <si>
-    <t>Back &amp; Front</t>
+    <t>Sistema</t>
   </si>
   <si>
     <t>Criação de docker-compose com configuração de rede</t>
@@ -49,22 +46,28 @@
     <t>Criacão inicial do microserviço clientes</t>
   </si>
   <si>
-    <t>Sistema</t>
-  </si>
-  <si>
     <t>Back</t>
   </si>
   <si>
-    <t>Deu pau</t>
+    <t>Criação de microserviço usando Spring boot</t>
   </si>
   <si>
     <t>Criação inicial do Gateway node.js</t>
   </si>
   <si>
-    <t>Sitema</t>
-  </si>
-  <si>
     <t>Faltando autenticação</t>
+  </si>
+  <si>
+    <t>Criação inicial do Front-end</t>
+  </si>
+  <si>
+    <t>Bootstrap do projeto</t>
+  </si>
+  <si>
+    <t>Criação dos mockups</t>
+  </si>
+  <si>
+    <t>Criação das telas</t>
   </si>
 </sst>
 </file>
@@ -1415,10 +1418,10 @@
         <v>8</v>
       </c>
       <c r="D4" t="s" s="12">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s" s="13">
         <v>9</v>
-      </c>
-      <c r="E4" t="s" s="13">
-        <v>10</v>
       </c>
     </row>
     <row r="5" ht="15.35" customHeight="1">
@@ -1426,16 +1429,16 @@
         <v>6</v>
       </c>
       <c r="B5" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="C5" t="s" s="12">
+      <c r="E5" t="s" s="13">
         <v>12</v>
-      </c>
-      <c r="D5" t="s" s="12">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s" s="13">
-        <v>14</v>
       </c>
     </row>
     <row r="6" ht="15.35" customHeight="1">
@@ -1443,35 +1446,49 @@
         <v>6</v>
       </c>
       <c r="B6" t="s" s="12">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s" s="12">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s" s="12">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s" s="13">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" ht="15.35" customHeight="1">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="7"/>
+      <c r="A7" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s" s="12">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s" s="12">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s" s="13">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" ht="15.35" customHeight="1">
       <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
+      <c r="B8" t="s" s="12">
+        <v>17</v>
+      </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="7"/>
     </row>
     <row r="9" ht="15.35" customHeight="1">
       <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
+      <c r="B9" t="s" s="12">
+        <v>18</v>
+      </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="7"/>
